--- a/Proyectos/2015/12/P1377 - RNCFAC, Karla Anguiano_MO/Planeacion/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1377 - RNCFAC, Karla Anguiano_MO/Planeacion/Plan_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -320,15 +320,9 @@
     <t>Dar seguimiento a las ventas y seguir el proceso definido por la empresa</t>
   </si>
   <si>
-    <t>Soporte</t>
-  </si>
-  <si>
     <t>Jose Francisco Llamas Diaz</t>
   </si>
   <si>
-    <t>Realizar las actividades de soporte</t>
-  </si>
-  <si>
     <t>Calidad</t>
   </si>
   <si>
@@ -407,21 +401,9 @@
     <t>Frecuencia</t>
   </si>
   <si>
-    <t>notificar actividad de implementación</t>
-  </si>
-  <si>
-    <t>Dejar los sistemas configurados y funcionanco correctamente</t>
-  </si>
-  <si>
     <t>1 vez por proyecto</t>
   </si>
   <si>
-    <t>notificar la finalización de la actividad agendada</t>
-  </si>
-  <si>
-    <t>Notificar que la tarea se finalizó con éxito</t>
-  </si>
-  <si>
     <t>Reunion de compromiso</t>
   </si>
   <si>
@@ -539,9 +521,6 @@
     <t>Frecuencia de monitoreo</t>
   </si>
   <si>
-    <t>Falla de conexión remota con Ammyy Admin En caso de fallar la conexión remota con Ammy Admin por no instalación o problemas de equipo</t>
-  </si>
-  <si>
     <t>TeamViwer, Show myPC</t>
   </si>
   <si>
@@ -663,6 +642,27 @@
   </si>
   <si>
     <t>Confirmar de recibido</t>
+  </si>
+  <si>
+    <t>Falla de conexión remota con Ammyy Admin, los efectos que ocaciona son que nos atrasa la tarea, que no se le brinde el servicio alc cliente</t>
+  </si>
+  <si>
+    <t>solcitar su certificado de renovacion</t>
+  </si>
+  <si>
+    <t>renovar el sistema del cliente</t>
+  </si>
+  <si>
+    <t>notificar la renovacion de su sistema</t>
+  </si>
+  <si>
+    <t>Notificar al cliente la renovacion de su sistema</t>
+  </si>
+  <si>
+    <t>info@sos-soft.com</t>
+  </si>
+  <si>
+    <t>realizar la solicitud del certificado</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1255,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,6 +1593,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1615,6 +1616,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1984,7 +1988,7 @@
   <dimension ref="A1:AMH9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5"/>
@@ -2015,11 +2019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2034,62 +2038,62 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="147"/>
+      <c r="B3" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="148"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="148"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="147">
         <v>42349</v>
       </c>
-      <c r="C7" s="146"/>
+      <c r="C7" s="147"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="147"/>
+      <c r="C8" s="148"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="149">
         <v>42352</v>
       </c>
-      <c r="C9" s="148"/>
+      <c r="C9" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2111,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1"/>
@@ -3162,10 +3166,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="149"/>
+      <c r="B2" s="150"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4209,42 +4213,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="150"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="147"/>
+      <c r="B6" s="148"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="149"/>
+      <c r="B7" s="150"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="147"/>
+      <c r="B8" s="148"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="149"/>
+      <c r="B9" s="150"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4283,12 +4287,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1">
       <c r="A15" s="11" t="s">
@@ -4368,10 +4372,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1">
@@ -4382,45 +4386,50 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="149"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1">
-      <c r="A26" s="153" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="153"/>
+      <c r="A26" s="154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="154"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="149"/>
+      <c r="B27" s="150"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A28" s="150" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="151"/>
+      <c r="A28" s="151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="152"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="150"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="152"/>
+      <c r="B30" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4430,11 +4439,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4448,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4532,53 +4536,59 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25">
+        <v>36172968</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>167</v>
+      </c>
       <c r="E6" s="28" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25">
       <c r="A7" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="25">
         <v>3318039095</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>10</v>
@@ -4587,10 +4597,10 @@
         <v>3312448000</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4609,7 +4619,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4618,19 +4628,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4663,7 +4673,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -4677,7 +4687,7 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4687,6 +4697,7 @@
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
     <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4713,19 +4724,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4821,7 +4832,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5902,13 +5913,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1">
-      <c r="A2" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="155" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -6930,19 +6941,19 @@
     </row>
     <row r="3" spans="1:1023">
       <c r="A3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="E3" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>82</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -8990,7 +9001,7 @@
     </row>
     <row r="5" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A5" s="48" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>51</v>
@@ -8999,59 +9010,61 @@
         <v>51</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A6" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="49"/>
+        <v>165</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="C6" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1023" s="50" customFormat="1" ht="51">
       <c r="A7" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A8" s="48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1023" s="50" customFormat="1">
@@ -9096,7 +9109,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9125,107 +9138,107 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A2" s="149" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
+      <c r="A2" s="150" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G4" s="31"/>
       <c r="J4" s="55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G5" s="31"/>
       <c r="J5" s="55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51">
       <c r="A6" s="56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" s="53">
         <v>2</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9330,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9361,7 +9374,7 @@
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
@@ -9370,7 +9383,7 @@
       <c r="J2" s="63"/>
       <c r="K2" s="64"/>
       <c r="IR2" s="65" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="IS2" s="65"/>
       <c r="IT2" s="65"/>
@@ -9395,59 +9408,59 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
       <c r="AE3" s="71" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AF3" s="71" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:261" ht="30">
       <c r="A4" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="H4" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="I4" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="J4" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="K4" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>126</v>
-      </c>
       <c r="AE4" s="76" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AF4" s="76" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:261" ht="76.5">
       <c r="A5" s="77">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>127</v>
+      <c r="B5" s="156" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="77">
         <v>1</v>
@@ -9463,19 +9476,19 @@
         <v>4</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H5" s="78" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:261" ht="51">
@@ -9483,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C6" s="77">
         <v>4</v>
@@ -9499,19 +9512,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:261" ht="51">
@@ -9519,7 +9532,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C7" s="77">
         <v>4</v>
@@ -9535,19 +9548,19 @@
         <v>3</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I7" s="77" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:261" ht="38.25">
@@ -9555,7 +9568,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="77">
         <v>5</v>
@@ -9571,19 +9584,19 @@
         <v>4</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I8" s="77" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="IS8" s="83"/>
       <c r="IT8" s="84"/>
@@ -9599,7 +9612,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C9" s="77">
         <v>5</v>
@@ -9615,25 +9628,25 @@
         <v>4</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I9" s="77" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="IS9" s="88" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="IT9" s="89" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="IU9" s="90">
         <v>0.9</v>
@@ -9664,7 +9677,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C10" s="77">
         <v>1</v>
@@ -9680,23 +9693,23 @@
         <v>3</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I10" s="77" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="IS10" s="88"/>
       <c r="IT10" s="89" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="IU10" s="90">
         <v>0.7</v>
@@ -9741,7 +9754,7 @@
       <c r="K11" s="104"/>
       <c r="IS11" s="88"/>
       <c r="IT11" s="89" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="IU11" s="90">
         <v>0.5</v>
@@ -9786,7 +9799,7 @@
       <c r="K12" s="104"/>
       <c r="IS12" s="88"/>
       <c r="IT12" s="89" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="IU12" s="90">
         <v>0.3</v>
@@ -9831,7 +9844,7 @@
       <c r="K13" s="104"/>
       <c r="IS13" s="88"/>
       <c r="IT13" s="89" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="IU13" s="111">
         <v>0.1</v>
@@ -9914,19 +9927,19 @@
       <c r="IT15" s="124"/>
       <c r="IU15" s="124"/>
       <c r="IV15" s="89" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="IW15" s="89" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="IX15" s="89" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="IY15" s="89" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="IZ15" s="126" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:261" ht="15">
@@ -9950,7 +9963,7 @@
       <c r="IT16" s="124"/>
       <c r="IU16" s="90"/>
       <c r="IV16" s="127" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="IW16" s="127"/>
       <c r="IX16" s="127"/>
@@ -10027,7 +10040,7 @@
       <c r="J19" s="121"/>
       <c r="K19" s="122"/>
       <c r="IS19" s="131" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="IT19" s="131"/>
       <c r="IU19" s="129"/>
@@ -10055,12 +10068,12 @@
       <c r="J20" s="121"/>
       <c r="K20" s="122"/>
       <c r="IS20" s="132" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="IT20" s="133"/>
       <c r="IU20" s="129"/>
       <c r="IV20" s="134" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="IW20" s="134"/>
       <c r="IX20" s="134"/>
@@ -10085,12 +10098,12 @@
       <c r="J21" s="121"/>
       <c r="K21" s="122"/>
       <c r="IS21" s="132" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="IT21" s="135"/>
       <c r="IU21" s="129"/>
       <c r="IV21" s="134" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="IW21" s="134"/>
       <c r="IX21" s="134"/>
@@ -10115,12 +10128,12 @@
       <c r="J22" s="121"/>
       <c r="K22" s="122"/>
       <c r="IS22" s="132" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="IT22" s="136"/>
       <c r="IU22" s="129"/>
       <c r="IV22" s="134" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="IW22" s="134"/>
       <c r="IX22" s="134"/>
